--- a/limiting_profiles.xlsx
+++ b/limiting_profiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Javi/Documents/cata/BDMA/1. Desicion Modeling/Project_2020_2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Javi/Documents/cata/BDMA/1. Desicion Modeling/Project_2020_2021/CS-DM-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C48E8-F3D5-B249-8566-022CFE0754B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833437F7-3C48-024F-A4BA-0A806E7BD536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{EABC4AED-AA29-A54F-BB9B-B81583BD1388}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{EABC4AED-AA29-A54F-BB9B-B81583BD1388}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,15 +432,15 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -509,7 +509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1850</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -578,7 +578,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
